--- a/data/matrix_lenz.xlsx
+++ b/data/matrix_lenz.xlsx
@@ -8,30 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sim-t\git\clustering\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C54E52-2AF6-4C18-8636-5A8F00AEF16B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F92FFCD-D83E-4596-843A-6275BB20E3F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="1260" windowWidth="22755" windowHeight="12390" xr2:uid="{622FFAD7-8B94-4888-A647-5BEF3E21E5CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{622FFAD7-8B94-4888-A647-5BEF3E21E5CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7569" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7569" uniqueCount="624">
   <si>
     <t>1.0</t>
   </si>
@@ -1840,9 +1834,6 @@
   </si>
   <si>
     <t>0.697</t>
-  </si>
-  <si>
-    <t>0.933</t>
   </si>
   <si>
     <t>0.678</t>
@@ -2280,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4AB12E-90F1-4A30-8262-F842574CA0F2}">
   <dimension ref="A1:CI87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR62" workbookViewId="0">
-      <selection activeCell="CI88" sqref="CI88"/>
+    <sheetView tabSelected="1" topLeftCell="BT67" workbookViewId="0">
+      <selection activeCell="CI87" sqref="CI87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,7 +2492,7 @@
         <v>208</v>
       </c>
       <c r="BT1" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="BU1" s="3" t="s">
         <v>257</v>
@@ -3027,7 +3018,7 @@
         <v>143</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BU3" s="3" t="s">
         <v>68</v>
@@ -3048,7 +3039,7 @@
         <v>380</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="CB3" s="3" t="s">
         <v>95</v>
@@ -3060,7 +3051,7 @@
         <v>186</v>
       </c>
       <c r="CE3" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="CF3" s="3" t="s">
         <v>272</v>
@@ -4596,7 +4587,7 @@
         <v>306</v>
       </c>
       <c r="BQ9" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="BR9" s="3" t="s">
         <v>380</v>
@@ -5152,25 +5143,25 @@
         <v>327</v>
       </c>
       <c r="CA11" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="CB11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="CC11" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="CD11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="CE11" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="CF11" s="3" t="s">
         <v>175</v>
       </c>
       <c r="CG11" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="CH11" s="3" t="s">
         <v>447</v>
@@ -5394,7 +5385,7 @@
         <v>371</v>
       </c>
       <c r="BT12" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BU12" s="4" t="s">
         <v>18</v>
@@ -5427,13 +5418,13 @@
         <v>212</v>
       </c>
       <c r="CE12" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="CF12" s="4" t="s">
         <v>177</v>
       </c>
       <c r="CG12" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="CH12" s="4" t="s">
         <v>242</v>
@@ -6972,7 +6963,7 @@
         <v>366</v>
       </c>
       <c r="BT18" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BU18" s="4" t="s">
         <v>316</v>
@@ -7017,7 +7008,7 @@
         <v>199</v>
       </c>
       <c r="CI18" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:87" x14ac:dyDescent="0.25">
@@ -10155,13 +10146,13 @@
         <v>186</v>
       </c>
       <c r="CC30" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="CD30" s="4" t="s">
         <v>281</v>
       </c>
       <c r="CE30" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="CF30" s="4" t="s">
         <v>319</v>
@@ -10669,7 +10660,7 @@
         <v>527</v>
       </c>
       <c r="BY32" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BZ32" s="4" t="s">
         <v>143</v>
@@ -10917,7 +10908,7 @@
         <v>33</v>
       </c>
       <c r="BT33" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BU33" s="3" t="s">
         <v>82</v>
@@ -12749,7 +12740,7 @@
         <v>409</v>
       </c>
       <c r="BQ40" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="BR40" s="4" t="s">
         <v>228</v>
@@ -16485,7 +16476,7 @@
         <v>454</v>
       </c>
       <c r="CI54" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="1:87" x14ac:dyDescent="0.25">
@@ -17498,7 +17489,7 @@
         <v>569</v>
       </c>
       <c r="BV58" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BW58" s="4" t="s">
         <v>312</v>
@@ -19312,7 +19303,7 @@
         <v>340</v>
       </c>
       <c r="BM65" s="3" t="s">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="BN65" s="3" t="s">
         <v>52</v>
@@ -19333,7 +19324,7 @@
         <v>267</v>
       </c>
       <c r="BT65" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BU65" s="3" t="s">
         <v>14</v>
@@ -20917,7 +20908,7 @@
         <v>294</v>
       </c>
       <c r="BV71" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="BW71" s="3" t="s">
         <v>347</v>
@@ -20956,7 +20947,7 @@
         <v>72</v>
       </c>
       <c r="CI71" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="72" spans="1:87" x14ac:dyDescent="0.25">
@@ -23284,7 +23275,7 @@
         <v>254</v>
       </c>
       <c r="BV80" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="BW80" s="4" t="s">
         <v>236</v>
@@ -23323,7 +23314,7 @@
         <v>109</v>
       </c>
       <c r="CI80" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="1:87" x14ac:dyDescent="0.25">
